--- a/public/files/Modelo_Matematico_Tabla_Dinamica_Rangos.xlsx
+++ b/public/files/Modelo_Matematico_Tabla_Dinamica_Rangos.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hctor\Documents\FIME\1\ATI\PIA\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6C512-84A5-4C58-B716-05B43D927A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B2EFE-CD26-4526-9FCE-FE3D4FB005F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla Dinámica" sheetId="6" r:id="rId2"/>
-    <sheet name="Utilización de rangos" sheetId="8" r:id="rId3"/>
+    <sheet name="Estádisticas" sheetId="6" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Alumnos_en_busqueda_de_su_primer_empleo">Datos!$O$2:$O$14</definedName>
@@ -32,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Periodo</t>
   </si>
@@ -209,12 +208,6 @@
   <si>
     <t>Promedio de Alumnos de Posgrado</t>
   </si>
-  <si>
-    <t xml:space="preserve">Los valores de "Tasa de desocupación", "Tasa de Empleo", "Promedio de Alumnos de Media Superior", "Promedio de Alumnos Universitarios", "Promedio de Alumnos de Posgrado" y "Alumnos en busqueda de su primer empleo" </t>
-  </si>
-  <si>
-    <t>son valores que se ha calculado con el uso de rangos.</t>
-  </si>
 </sst>
 </file>
 
@@ -225,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +254,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -286,11 +272,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -302,19 +287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF96F4CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFDDFDD9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,42 +399,18 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -464,38 +425,53 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,30 +479,32 @@
     <xf numFmtId="43" fontId="2" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -580,6 +558,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDFDD9"/>
+      <color rgb="FF96F4CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1377,10 +1361,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent6">
-        <a:lumMod val="60000"/>
-        <a:lumOff val="40000"/>
-      </a:schemeClr>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:solidFill>
     <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1430,7 +1411,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Modelo_Matematico_Tabla_Dinamica_Rangos.xlsx]Tabla Dinámica!TablaDinámica3</c:name>
+    <c:name>[Modelo_Matematico_Tabla_Dinamica_Rangos.xlsx]Estádisticas!TablaDinámica3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1587,7 +1568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabla Dinámica'!$B$3</c:f>
+              <c:f>Estádisticas!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1622,7 +1603,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabla Dinámica'!$A$4:$A$20</c:f>
+              <c:f>Estádisticas!$A$4:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1678,7 +1659,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabla Dinámica'!$B$4:$B$20</c:f>
+              <c:f>Estádisticas!$B$4:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1745,7 +1726,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabla Dinámica'!$C$3</c:f>
+              <c:f>Estádisticas!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1780,7 +1761,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabla Dinámica'!$A$4:$A$20</c:f>
+              <c:f>Estádisticas!$A$4:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1836,7 +1817,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabla Dinámica'!$C$4:$C$20</c:f>
+              <c:f>Estádisticas!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2014,7 +1995,9 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2072,10 +2055,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx2">
-        <a:lumMod val="20000"/>
-        <a:lumOff val="80000"/>
-      </a:schemeClr>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3234,10 +3214,10 @@
       <xdr:rowOff>14270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>286196</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>35774</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3301,1003 +3281,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1193966</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>701823</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>24740</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Grupo 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92558EED-42B4-4CD7-9803-0B2D0C5E5295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1701141" y="1286493"/>
-          <a:ext cx="18285714" cy="9722922"/>
-          <a:chOff x="1701141" y="1286493"/>
-          <a:chExt cx="18285714" cy="9722922"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Imagen 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86066F19-FA20-431D-98A2-69D126D15003}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect b="5471"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1701141" y="1286493"/>
-            <a:ext cx="18285714" cy="9722922"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F020ADA9-15AF-4EBB-9966-2E805665CCA7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5517079" y="3426526"/>
-            <a:ext cx="940130" cy="7384967"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectángulo 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F46B8B-4638-4537-8FD2-C9E343DFBE23}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6572498" y="3442854"/>
-            <a:ext cx="940130" cy="7384967"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectángulo 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02D5A0F-A88B-47DE-8FC1-F96CEED982E0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10386456" y="3384963"/>
-            <a:ext cx="1377538" cy="2342408"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectángulo 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1D6A63-7FC9-4AF8-B5B1-01E6CE8096E9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12555188" y="3426031"/>
-            <a:ext cx="1101435" cy="2313709"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectángulo 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEED8DA-39BC-4D55-B3BE-0B0F3E3073D5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14361227" y="3376550"/>
-            <a:ext cx="866403" cy="2342408"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectángulo 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB112BC9-AB88-4961-9EB4-E00E612D8647}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15264246" y="3376550"/>
-            <a:ext cx="1534389" cy="2342408"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333993</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>235032</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123701</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939D5F78-9A8B-4173-A5D4-166000E12A6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4280064" y="2956461"/>
-          <a:ext cx="1434936" cy="173182"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>572982</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12369</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>98961</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectángulo 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24207FCF-5456-4029-8178-EE38239B2E9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6052950" y="2923310"/>
-          <a:ext cx="2507179" cy="181593"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1193966</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>701823</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="Grupo 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F97C985-4D51-47C7-AB2D-D51C8299424D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1701141" y="1249383"/>
-          <a:ext cx="18285714" cy="9722922"/>
-          <a:chOff x="1701141" y="1249383"/>
-          <a:chExt cx="18285714" cy="9722922"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="Grupo 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB96BF8-066A-461B-877B-8372C4AC7AE0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1701141" y="1249383"/>
-            <a:ext cx="18285714" cy="9722922"/>
-            <a:chOff x="1701141" y="1286493"/>
-            <a:chExt cx="18285714" cy="9722922"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="16" name="Imagen 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B5DD5A-824D-45E7-B595-E9D51966D5F3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect b="5471"/>
-            <a:stretch/>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1701141" y="1286493"/>
-              <a:ext cx="18285714" cy="9722922"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="Rectángulo 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECAF8ED-FB45-4090-AFA5-FC361BEF90FC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5393377" y="3426526"/>
-              <a:ext cx="1063832" cy="7384967"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="es-MX" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectángulo 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751E8832-DA68-4981-92DE-2A700143165D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6572498" y="3442854"/>
-              <a:ext cx="940130" cy="7384967"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="es-MX" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Rectángulo 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412355D7-12F6-44A7-97CE-C0E84B3E3D0F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10386456" y="3384963"/>
-              <a:ext cx="1377538" cy="2342408"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="es-MX" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Rectángulo 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3497391B-E117-490C-9186-CA87590A8416}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12555188" y="3426031"/>
-              <a:ext cx="1101435" cy="2313709"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="es-MX" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Rectángulo 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104B848F-D5BD-407F-AD9E-D8712BC72B41}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14361227" y="3376550"/>
-              <a:ext cx="866403" cy="2342408"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="es-MX" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="Rectángulo 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7E04A5-1757-4137-A0EA-A49AB45A95AF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15264246" y="3376550"/>
-              <a:ext cx="1534389" cy="2342408"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="es-MX" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Rectángulo 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F478ECC-D698-4A39-BF3F-91F9474B62D5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4280064" y="2919351"/>
-            <a:ext cx="1434936" cy="173182"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rectángulo 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7967B4-1B57-4378-AD27-91A4CDCB9B4C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6052950" y="2910940"/>
-            <a:ext cx="2507179" cy="181593"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-MX" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6885,20 +5868,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="15" customWidth="1"/>
-    <col min="2" max="4" width="17.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="7" customWidth="1"/>
+    <col min="2" max="4" width="17.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="10" width="27.28515625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
@@ -6910,1167 +5893,1167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="14"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="31">
         <v>38353</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="17">
         <v>1796964</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="17">
         <v>102202</v>
       </c>
       <c r="D2" s="4">
         <v>1899166</v>
       </c>
-      <c r="E2" s="22" cm="1">
+      <c r="E2" s="12" cm="1">
         <f t="array" ref="E2:E62">(Poblacion_desocupada*100)/(Población_Económicamente_Activa__PEA)</f>
         <v>5.3814147894391535</v>
       </c>
-      <c r="F2" s="34" cm="1">
+      <c r="F2" s="22" cm="1">
         <f t="array" ref="F2:F62">(Poblacion_ocupada*100)/(Población_Económicamente_Activa__PEA)</f>
         <v>94.618585210560852</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="3">
         <v>130854</v>
       </c>
-      <c r="J2" s="21" cm="1">
+      <c r="J2" s="11" cm="1">
         <f t="array" ref="J2:J14">(Media_Superior*100)/Alumnos_en_busqueda_de_su_primer_empleo</f>
         <v>51.442791546106427</v>
       </c>
       <c r="K2" s="3">
         <v>112887</v>
       </c>
-      <c r="L2" s="21" cm="1">
+      <c r="L2" s="11" cm="1">
         <f t="array" ref="L2:L14">(Universidad*100)/Alumnos_en_busqueda_de_su_primer_empleo</f>
         <v>44.379403069568497</v>
       </c>
       <c r="M2" s="3">
         <v>10627</v>
       </c>
-      <c r="N2" s="21" cm="1">
+      <c r="N2" s="11" cm="1">
         <f t="array" ref="N2:N14">(Posgrado*100)/Alumnos_en_busqueda_de_su_primer_empleo</f>
         <v>4.1778053843250724</v>
       </c>
-      <c r="O2" s="30" cm="1">
+      <c r="O2" s="20" cm="1">
         <f t="array" ref="O2:O14">Media_Superior + Universidad + Posgrado</f>
         <v>254368</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="31">
         <v>38384</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="17">
         <v>1827821</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="17">
         <v>92173</v>
       </c>
       <c r="D3" s="4">
         <v>1919994</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="12">
         <v>4.8006920854961006</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="22">
         <v>95.199307914503905</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="4">
         <v>132548</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="12">
         <v>50.50986967456749</v>
       </c>
       <c r="K3" s="4">
         <v>117852</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="12">
         <v>44.909686761679751</v>
       </c>
       <c r="M3" s="4">
         <v>12020</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="12">
         <v>4.5804435637527625</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="20">
         <v>262420</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="31">
         <v>38412</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="17">
         <v>1847100</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="17">
         <v>116430</v>
       </c>
       <c r="D4" s="4">
         <v>1963530</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="12">
         <v>5.9296267436708376</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="22">
         <v>94.070373256329162</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="3">
         <v>133182</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="11">
         <v>49.91922637230833</v>
       </c>
       <c r="K4" s="3">
         <v>122471</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="11">
         <v>45.904533443280421</v>
       </c>
       <c r="M4" s="3">
         <v>11142</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="11">
         <v>4.1762401844112524</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="20">
         <v>266795</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="31">
         <v>38443</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="17">
         <v>1879226</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="17">
         <v>87357</v>
       </c>
       <c r="D5" s="4">
         <v>1966583</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="12">
         <v>4.4420703321446391</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="22">
         <v>95.557929667855362</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="4">
         <v>137788</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="12">
         <v>50.154699591593079</v>
       </c>
       <c r="K5" s="4">
         <v>125098</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="12">
         <v>45.535551786143287</v>
       </c>
       <c r="M5" s="4">
         <v>11840</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="12">
         <v>4.309748622263637</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="20">
         <v>274726</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="31">
         <v>38718</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="17">
         <v>1881618</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="17">
         <v>90710</v>
       </c>
       <c r="D6" s="4">
         <v>1972328</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="12">
         <v>4.599133612664831</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="22">
         <v>95.400866387335171</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="33" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="3">
         <v>146077</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="11">
         <v>50.878586181554738</v>
       </c>
       <c r="K6" s="3">
         <v>129458</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="11">
         <v>45.090192226645627</v>
       </c>
       <c r="M6" s="3">
         <v>11574</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="11">
         <v>4.0312215917996301</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="20">
         <v>287109</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="31">
         <v>38749</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="17">
         <v>1908834</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="17">
         <v>93126</v>
       </c>
       <c r="D7" s="4">
         <v>2001960</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="12">
         <v>4.6517412935323383</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="22">
         <v>95.348258706467661</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="34" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="4">
         <v>146376</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="12">
         <v>49.734975128435131</v>
       </c>
       <c r="K7" s="4">
         <v>134471</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="12">
         <v>45.689948082307211</v>
       </c>
       <c r="M7" s="4">
         <v>13465</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="12">
         <v>4.5750767892576585</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="20">
         <v>294312</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="31">
         <v>38777</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="17">
         <v>1951436</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="17">
         <v>123357</v>
       </c>
       <c r="D8" s="4">
         <v>2074793</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="12">
         <v>5.9455087808759721</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="22">
         <v>94.054491219124031</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="33" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="3">
         <v>147813</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="11">
         <v>49.077308223544414</v>
       </c>
       <c r="K8" s="3">
         <v>138693</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="11">
         <v>46.049258924776879</v>
       </c>
       <c r="M8" s="3">
         <v>14678</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="11">
         <v>4.8734328516787082</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="20">
         <v>301184</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="31">
         <v>38808</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="17">
         <v>1949684</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="17">
         <v>91923</v>
       </c>
       <c r="D9" s="4">
         <v>2041607</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="12">
         <v>4.5024826031650553</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="22">
         <v>95.497517396834951</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="34" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="4">
         <v>150192</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="12">
         <v>47.282526570291644</v>
       </c>
       <c r="K9" s="4">
         <v>150883</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="12">
         <v>47.500062962776404</v>
       </c>
       <c r="M9" s="4">
         <v>16573</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="12">
         <v>5.2174104669319501</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="20">
         <v>317648</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="31">
         <v>39083</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="17">
         <v>1962373</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="17">
         <v>102656</v>
       </c>
       <c r="D10" s="4">
         <v>2065029</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="12">
         <v>4.971165053856387</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="22">
         <v>95.028834946143618</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="3">
         <v>159212</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="11">
         <v>48.525597456865157</v>
       </c>
       <c r="K10" s="3">
         <v>153347</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="11">
         <v>46.738027241777637</v>
       </c>
       <c r="M10" s="3">
         <v>15540</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="11">
         <v>4.7363753013572127</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="20">
         <v>328099</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="31">
         <v>39114</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="17">
         <v>1964325</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="17">
         <v>93773</v>
       </c>
       <c r="D11" s="4">
         <v>2058098</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="12">
         <v>4.5562942095080023</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="22">
         <v>95.443705790492004</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="34" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="4">
         <v>167430</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="12">
         <v>49.772289471806701</v>
       </c>
       <c r="K11" s="4">
         <v>155337</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="12">
         <v>46.17737639420676</v>
       </c>
       <c r="M11" s="4">
         <v>13625</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="12">
         <v>4.0503341339865395</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="20">
         <v>336392</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="31">
         <v>39142</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="17">
         <v>1957837</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="17">
         <v>97349</v>
       </c>
       <c r="D12" s="4">
         <v>2055186</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="12">
         <v>4.736748887935204</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="22">
         <v>95.263251112064793</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="33" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="3">
         <v>173580</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="11">
         <v>50.037763261823358</v>
       </c>
       <c r="K12" s="3">
         <v>158431</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="11">
         <v>45.670773541502115</v>
       </c>
       <c r="M12" s="3">
         <v>14887</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="11">
         <v>4.2914631966745267</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="20">
         <v>346898</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="31">
         <v>39173</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="17">
         <v>2014356</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="17">
         <v>78920</v>
       </c>
       <c r="D13" s="4">
         <v>2093276</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="12">
         <v>3.7701669536172009</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="22">
         <v>96.229833046382794</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="4">
         <v>180849</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="12">
         <v>49.679150848547117</v>
       </c>
       <c r="K13" s="4">
         <v>169014</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="12">
         <v>46.428080893542912</v>
       </c>
       <c r="M13" s="4">
         <v>14171</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="12">
         <v>3.8927682579099754</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="20">
         <v>364034</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="31">
         <v>39448</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="17">
         <v>1999638</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="17">
         <v>95018</v>
       </c>
       <c r="D14" s="4">
         <v>2094656</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="12">
         <v>4.5362102416816894</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="22">
         <v>95.463789758318313</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="5">
         <v>188132</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="13">
         <v>49.589329959407458</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="5">
         <v>177550</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="13">
         <v>46.800042174073489</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="5">
         <v>13698</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="13">
         <v>3.6106278665190574</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="21">
         <v>379380</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="31">
         <v>39479</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="17">
         <v>2020109</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="17">
         <v>88566</v>
       </c>
       <c r="D15" s="4">
         <v>2108675</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="12">
         <v>4.2000782481890289</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="22">
         <v>95.79992175181097</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="31">
         <v>39508</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="17">
         <v>2010139</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="17">
         <v>103501</v>
       </c>
       <c r="D16" s="4">
         <v>2113640</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="12">
         <v>4.8968130807516888</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="22">
         <v>95.103186919248316</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="31">
         <v>39539</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="17">
         <v>2013057</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="17">
         <v>92869</v>
       </c>
       <c r="D17" s="4">
         <v>2105926</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="12">
         <v>4.4098890464337304</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="22">
         <v>95.590110953566267</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="31">
         <v>39814</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="17">
         <v>1999162</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="17">
         <v>148857</v>
       </c>
       <c r="D18" s="4">
         <v>2148019</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="12">
         <v>6.9299666343733461</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="22">
         <v>93.070033365626657</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="31">
         <v>39845</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="17">
         <v>2002438</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="17">
         <v>152586</v>
       </c>
       <c r="D19" s="4">
         <v>2155024</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="12">
         <v>7.0804779900363055</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="22">
         <v>92.9195220099637</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="31">
         <v>39873</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="17">
         <v>2006290</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="17">
         <v>182761</v>
       </c>
       <c r="D20" s="4">
         <v>2189051</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="12">
         <v>8.3488689847792497</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="22">
         <v>91.651131015220756</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="31">
         <v>39904</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="17">
         <v>2060051</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="17">
         <v>147608</v>
       </c>
       <c r="D21" s="4">
         <v>2207659</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="12">
         <v>6.686177530134862</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="22">
         <v>93.313822469865144</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="31">
         <v>40179</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="17">
         <v>2042975</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="17">
         <v>150226</v>
       </c>
       <c r="D22" s="4">
         <v>2193201</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="12">
         <v>6.8496229939709128</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="22">
         <v>93.150377006029089</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="31">
         <v>40210</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="17">
         <v>2077716</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="17">
         <v>148678</v>
       </c>
       <c r="D23" s="4">
         <v>2226394</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="12">
         <v>6.6779734404602245</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="22">
         <v>93.322026559539779</v>
       </c>
-      <c r="P23" s="14"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="31">
         <v>40238</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="17">
         <v>2058503</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="17">
         <v>151753</v>
       </c>
       <c r="D24" s="4">
         <v>2210256</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="12">
         <v>6.8658562628039466</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="22">
         <v>93.134143737196055</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="31">
         <v>40269</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="17">
         <v>2099483</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="17">
         <v>128997</v>
       </c>
       <c r="D25" s="4">
         <v>2228480</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="12">
         <v>5.7885644026421597</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="22">
         <v>94.211435597357834</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="31">
         <v>40544</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="17">
         <v>2060222</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="17">
         <v>141230</v>
       </c>
       <c r="D26" s="4">
         <v>2201452</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="12">
         <v>6.4153113490550782</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="22">
         <v>93.584688650944926</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="31">
         <v>40575</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="17">
         <v>2066527</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="17">
         <v>133304</v>
       </c>
       <c r="D27" s="4">
         <v>2199831</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="12">
         <v>6.0597382253454928</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="22">
         <v>93.940261774654502</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="31">
         <v>40603</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="17">
         <v>2082279</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="17">
         <v>144540</v>
       </c>
       <c r="D28" s="4">
         <v>2226819</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="12">
         <v>6.4908733040269553</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="22">
         <v>93.509126695973052</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="31">
         <v>40634</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="17">
         <v>2139933</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="17">
         <v>124345</v>
       </c>
       <c r="D29" s="4">
         <v>2264278</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="12">
         <v>5.4915959966046568</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="22">
         <v>94.508404003395341</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="31">
         <v>40909</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="17">
         <v>2109314</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="17">
         <v>123531</v>
       </c>
       <c r="D30" s="4">
         <v>2232845</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="12">
         <v>5.5324485129957521</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="22">
         <v>94.467551487004243</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="31">
         <v>40940</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="17">
         <v>2166374</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="17">
         <v>145032</v>
       </c>
       <c r="D31" s="4">
         <v>2311406</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="12">
         <v>6.274622459230442</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="22">
         <v>93.725377540769557</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="31">
         <v>40969</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="17">
         <v>2153798</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="17">
         <v>132356</v>
       </c>
       <c r="D32" s="4">
         <v>2286154</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="12">
         <v>5.7894612523915709</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="22">
         <v>94.210538747608425</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="A33" s="31">
         <v>41000</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="17">
         <v>2183813</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="17">
         <v>124806</v>
       </c>
       <c r="D33" s="4">
         <v>2308619</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="12">
         <v>5.4060890948224891</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="22">
         <v>94.593910905177509</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="A34" s="31">
         <v>41275</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="17">
         <v>2087447</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="17">
         <v>142811</v>
       </c>
       <c r="D34" s="4">
         <v>2230258</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="12">
         <v>6.4033398826503483</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="22">
         <v>93.596660117349657</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="A35" s="31">
         <v>41306</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="17">
         <v>2183357</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="17">
         <v>131850</v>
       </c>
       <c r="D35" s="4">
         <v>2315207</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="12">
         <v>5.6949551379207133</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="22">
         <v>94.305044862079285</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="31">
         <v>41334</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="17">
         <v>2161140</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="17">
         <v>131674</v>
       </c>
       <c r="D36" s="4">
         <v>2292814</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="12">
         <v>5.7428993367974899</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="22">
         <v>94.257100663202507</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="A37" s="31">
         <v>41365</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="17">
         <v>2189520</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="17">
         <v>108869</v>
       </c>
       <c r="D37" s="4">
         <v>2298389</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="12">
         <v>4.7367525688645395</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="22">
         <v>95.263247431135454</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
+      <c r="A38" s="31">
         <v>41640</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="17">
         <v>2093303</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="17">
         <v>122372</v>
       </c>
       <c r="D38" s="4">
         <v>2215675</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="12">
         <v>5.5230121746194722</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="22">
         <v>94.476987825380533</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="31">
         <v>41671</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="17">
         <v>2167893</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="17">
         <v>128803</v>
       </c>
       <c r="D39" s="4">
         <v>2296696</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="12">
         <v>5.6081867169185644</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="22">
         <v>94.391813283081433</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+      <c r="A40" s="31">
         <v>41699</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="17">
         <v>2176964</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="17">
         <v>131979</v>
       </c>
       <c r="D40" s="4">
         <v>2308943</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="12">
         <v>5.7159921228025121</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="22">
         <v>94.284007877197482</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="A41" s="31">
         <v>41730</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="17">
         <v>2206804</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="17">
         <v>95447</v>
       </c>
       <c r="D41" s="4">
         <v>2302251</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="12">
         <v>4.1458120769629376</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="22">
         <v>95.85418792303706</v>
       </c>
       <c r="H41" s="1"/>
@@ -8078,434 +7061,434 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="31">
         <v>42005</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="17">
         <v>2189373</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="17">
         <v>107062</v>
       </c>
       <c r="D42" s="4">
         <v>2296435</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="12">
         <v>4.662095813728671</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="22">
         <v>95.337904186271331</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="A43" s="31">
         <v>42036</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="17">
         <v>2212256</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="17">
         <v>114857</v>
       </c>
       <c r="D43" s="4">
         <v>2327113</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="12">
         <v>4.935600462891145</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="22">
         <v>95.064399537108855</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
+      <c r="A44" s="31">
         <v>42064</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="17">
         <v>2222869</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="17">
         <v>114625</v>
       </c>
       <c r="D44" s="4">
         <v>2337494</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="12">
         <v>4.9037559026889479</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F44" s="22">
         <v>95.096244097311057</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="31">
         <v>42095</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="17">
         <v>2275935</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="17">
         <v>94512</v>
       </c>
       <c r="D45" s="4">
         <v>2370447</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="12">
         <v>3.9870961046587414</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="22">
         <v>96.012903895341253</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="31">
         <v>42370</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="17">
         <v>2215061</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="17">
         <v>103239</v>
       </c>
       <c r="D46" s="4">
         <v>2318300</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="12">
         <v>4.4532200319199413</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="22">
         <v>95.54677996808006</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="A47" s="31">
         <v>42401</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="17">
         <v>2290795</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="17">
         <v>99926</v>
       </c>
       <c r="D47" s="4">
         <v>2390721</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="12">
         <v>4.1797432657344791</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="22">
         <v>95.820256734265527</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="31">
         <v>42430</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="17">
         <v>2325081</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="17">
         <v>104099</v>
       </c>
       <c r="D48" s="4">
         <v>2429180</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="12">
         <v>4.2853555520793023</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="22">
         <v>95.714644447920691</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="A49" s="31">
         <v>42461</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="17">
         <v>2364805</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="17">
         <v>101740</v>
       </c>
       <c r="D49" s="4">
         <v>2466545</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="12">
         <v>4.12479804747126</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="22">
         <v>95.875201952528741</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="A50" s="31">
         <v>42736</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="17">
         <v>2326668</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="17">
         <v>90809</v>
       </c>
       <c r="D50" s="4">
         <v>2417477</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="12">
         <v>3.7563542486650339</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="22">
         <v>96.243645751334967</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="31">
         <v>42767</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="17">
         <v>2339136</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="17">
         <v>97404</v>
       </c>
       <c r="D51" s="4">
         <v>2436540</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="12">
         <v>3.9976359920214732</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="22">
         <v>96.002364007978528</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="A52" s="31">
         <v>42795</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="17">
         <v>2349274</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="17">
         <v>97147</v>
       </c>
       <c r="D52" s="4">
         <v>2446421</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="12">
         <v>3.9709845525361334</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="22">
         <v>96.029015447463863</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="31">
         <v>42826</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="17">
         <v>2388531</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="17">
         <v>85123</v>
       </c>
       <c r="D53" s="4">
         <v>2473654</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="12">
         <v>3.4411845795733762</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="22">
         <v>96.558815420426626</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="A54" s="31">
         <v>43101</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="17">
         <v>2353407</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="17">
         <v>88242</v>
       </c>
       <c r="D54" s="4">
         <v>2441649</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="12">
         <v>3.614032975255657</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="22">
         <v>96.385967024744346</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
+      <c r="A55" s="31">
         <v>43132</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="17">
         <v>2439392</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="17">
         <v>87712</v>
       </c>
       <c r="D55" s="4">
         <v>2527104</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="12">
         <v>3.4708504279997974</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="22">
         <v>96.529149572000208</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
+      <c r="A56" s="31">
         <v>43160</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="17">
         <v>2409258</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="17">
         <v>93772</v>
       </c>
       <c r="D56" s="4">
         <v>2503030</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="12">
         <v>3.7463394366028373</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="22">
         <v>96.253660563397162</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
+      <c r="A57" s="31">
         <v>43191</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="17">
         <v>2420543</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="17">
         <v>88389</v>
       </c>
       <c r="D57" s="4">
         <v>2508932</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="12">
         <v>3.5229731216310367</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="22">
         <v>96.47702687836896</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
+      <c r="A58" s="31">
         <v>43466</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="18">
         <v>2418796</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="18">
         <v>83224</v>
       </c>
       <c r="D58" s="4">
         <v>2502020</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="12">
         <v>3.3262723719234857</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="22">
         <v>96.67372762807652</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
+      <c r="A59" s="31">
         <v>43497</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59" s="18">
         <v>2435564</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="18">
         <v>88689</v>
       </c>
       <c r="D59" s="4">
         <v>2524253</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="12">
         <v>3.513475075596622</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="22">
         <v>96.486524924403383</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="31">
         <v>43525</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="18">
         <v>2451127</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="18">
         <v>89130</v>
       </c>
       <c r="D60" s="4">
         <v>2540257</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="12">
         <v>3.5087001039658587</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="22">
         <v>96.491299896034135</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="A61" s="31">
         <v>43556</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="18">
         <v>2510091</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="18">
         <v>94576</v>
       </c>
       <c r="D61" s="4">
         <v>2604667</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="12">
         <v>3.6310207792397264</v>
       </c>
-      <c r="F61" s="34">
+      <c r="F61" s="22">
         <v>96.368979220760281</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+      <c r="A62" s="32">
         <v>43831</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="23">
         <v>2514056</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="23">
         <v>99799</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="24">
         <v>2613855</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="25">
         <v>3.8180771312869308</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="26">
         <v>96.181922868713073</v>
       </c>
       <c r="G62" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" display="http://www.inegi.org.mx/lib/olap/consulta/general_ver4/MDXQueryDatos_colores.asp?c=" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C54" r:id="rId2" display="http://www.inegi.org.mx/lib/olap/consulta/general_ver4/MDXQueryDatos_colores.asp?c=" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -8519,219 +7502,219 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED5EF50-A90A-4A02-BAD8-AAD0E851FE6E}">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="28" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="62" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="19">
         <v>99540.5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="19">
         <v>1837777.75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="19">
         <v>99779</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="19">
         <v>1922893</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="19">
         <v>93174.5</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="19">
         <v>1974722.75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="19">
         <v>94988.5</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="19">
         <v>2010735.75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="19">
         <v>157953</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="19">
         <v>2016985.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="19">
         <v>144913.5</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="19">
         <v>2069669.25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="19">
         <v>135854.75</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="19">
         <v>2087240.25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="19">
         <v>131431.25</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="19">
         <v>2153324.75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="19">
         <v>128801</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="19">
         <v>2155366</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="19">
         <v>119650.25</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="19">
         <v>2161241</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="19">
         <v>107764</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="19">
         <v>2225108.25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="19">
         <v>102251</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="19">
         <v>2298935.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="19">
         <v>92620.75</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="19">
         <v>2350902.25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="19">
         <v>89528.75</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="19">
         <v>2405650</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="19">
         <v>88904.75</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="19">
         <v>2453894.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="19">
         <v>99799</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="19">
         <v>2514056</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="19">
         <v>112269.19672131147</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="19">
         <v>2147735.0983606558</v>
       </c>
     </row>
@@ -8739,118 +7722,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE697FA-AF74-47AB-BE3D-A1ECE7656C00}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.14999847407452621"/>
-  </sheetPr>
-  <dimension ref="B2:Y4"/>
-  <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="40" customWidth="1"/>
-    <col min="4" max="24" width="11.42578125" style="40"/>
-    <col min="25" max="25" width="35.85546875" style="40" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-    </row>
-    <row r="3" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-    </row>
-    <row r="4" spans="2:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:Y3"/>
-    <mergeCell ref="B4:Y4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>